--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/AccumulatedPaymentReport.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/AccumulatedPaymentReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -18,15 +18,44 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>累計支給額チェックリスト</t>
+  </si>
+  <si>
+    <t>&amp;=$HeaderTime</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +78,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,15 +378,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="61" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/AccumulatedPaymentReport.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/AccumulatedPaymentReport.xlsx
@@ -19,20 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>累計支給額チェックリスト</t>
-  </si>
-  <si>
-    <t>&amp;=$HeaderTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,000"/>
+    <numFmt numFmtId="165" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -78,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -92,11 +90,14 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,7 +382,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -397,22 +398,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G1" s="2" t="s">
-        <v>1</v>
+      <c r="G1" s="7">
+        <f ca="1">NOW()</f>
+        <v>42818.646398726851</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4"/>

--- a/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/AccumulatedPaymentReport.xlsx
+++ b/nts.uk/file/pr/nts.uk.file.pr.infra/src/main/resources/report/AccumulatedPaymentReport.xlsx
@@ -19,9 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>累計支給額チェックリスト</t>
+  </si>
+  <si>
+    <t>&amp;=Header.departmentInfo(bean)</t>
+  </si>
+  <si>
+    <t>&amp;=Header.empTypeInfo(bean)</t>
+  </si>
+  <si>
+    <t>&amp;=Header.positionInfo(bean)</t>
+  </si>
+  <si>
+    <t>&amp;=Header.yearMonthInfo(bean)</t>
   </si>
 </sst>
 </file>
@@ -76,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -92,12 +104,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -398,21 +413,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G1" s="7">
-        <f ca="1">NOW()</f>
-        <v>42818.646398726851</v>
-      </c>
+      <c r="G1" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -424,10 +464,17 @@
       <c r="G12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L【日通システム株式会社】</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>